--- a/pred_ohlcv/54_21/2020-01-24 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6291333.229071707</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6291333.229071707</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6477950.125471707</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6477950.125471707</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5952129.878571707</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7399410.842771707</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-7399528.016171707</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-7362988.829971706</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-7347223.639571707</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-7346723.639571707</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-7346723.639571707</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-7346723.639571707</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-8011589.755071707</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8011089.755071707</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-8317356.811971707</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8785769.240571707</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-8436529.663571708</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-8436529.663571708</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-8436029.663571708</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7828734.486971708</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7781177.094071708</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6055535.101971708</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6053135.101971708</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6039574.372071709</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-6039574.372071709</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-6417698.906271708</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-6451574.245025096</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6454644.426825096</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6260731.557525096</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5538287.061925096</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-5643395.359025097</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5524365.359025097</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-5524365.359025097</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5291858.997983571</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-5318768.997983571</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-5354968.997983571</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-5361631.522183571</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-5361631.522183571</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-5361631.522183571</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-5318267.344083571</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-5328284.547483571</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5344633.463983571</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5360621.655783571</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5458750.565783571</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-12886801.38348357</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-14334742.94278357</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-14318536.53618357</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-14338364.15078357</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-14338184.15078357</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-14194168.46328357</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6291333.229071707</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6291333.229071707</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6477950.125471707</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6477950.125471707</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5952129.878571707</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7399410.842771707</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-7399528.016171707</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-7362988.829971706</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-7347223.639571707</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-7346723.639571707</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-7346723.639571707</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-7346723.639571707</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-8011589.755071707</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8011089.755071707</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-8317356.811971707</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8785769.240571707</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-8436529.663571708</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-8436529.663571708</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-8436029.663571708</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7828734.486971708</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7781177.094071708</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6055535.101971708</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6053135.101971708</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6039574.372071709</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-6039574.372071709</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-6417698.906271708</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-6451574.245025096</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6454644.426825096</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6344881.325325096</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6260731.557525096</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5538287.061925096</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-5643395.359025097</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5524365.359025097</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-5524365.359025097</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5291858.997983571</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-5318768.997983571</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-5354968.997983571</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-5361631.522183571</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-5361631.522183571</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-5328284.547483571</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-12886801.38348357</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-14318536.53618357</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-14338364.15078357</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-14338184.15078357</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-14194168.46328357</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
